--- a/05班スプリントバックログ.xlsx
+++ b/05班スプリントバックログ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jamming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658"/>
+    <workbookView xWindow="3888" yWindow="3048" windowWidth="19236" windowHeight="12120" tabRatio="658" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="デバッグシート" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'スプリントバックログ(第１）'!$A$1:$Q$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">デバッグシート!$B$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$E$209</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$4</definedName>
@@ -33,7 +34,7 @@
     <definedName name="登録者" localSheetId="4">OFFSET(デバッグシート!$R$2,0,0,COUNTA(デバッグシート!$R$2:$R$10),1)</definedName>
     <definedName name="登録者">OFFSET(#REF!,0,0,COUNTA(#REF!),1)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -550,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -979,11 +980,386 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>VRの接続確認</t>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>張り付き・ターザンをVRに対応</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>引く動作の改善</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ブリンクの実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レティクルが壁などで隠れないようにする</t>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フェードの実装</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>サウンド管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮ステージ作成</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクションの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>下田</t>
+    <rPh sb="0" eb="2">
+      <t>シモダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>馬上</t>
+    <rPh sb="0" eb="2">
+      <t>マガミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>VRの動作確認</t>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>引く動作の確認</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>澁谷</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>澁谷</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゴールの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>通常移動の実装</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>下田</t>
+    <rPh sb="0" eb="2">
+      <t>シモダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>制限時間の実装</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>落ちたらスタート地点に戻す</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>澁谷</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>澁谷</t>
+    <rPh sb="0" eb="2">
+      <t>シブヤ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>下田</t>
+    <rPh sb="0" eb="2">
+      <t>シモダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスポーンの確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トリガーを離したらワイヤーを離すように</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル画面の仕様</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム画面の仕様</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクション遷移の仕様</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ターザンロープの仕様</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>張り付きの仕様</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ワイヤーブリンクの仕様</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>巻き取り停止の仕様</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>企画書の作成</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>馬上</t>
+    <rPh sb="0" eb="2">
+      <t>マガミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>隕石のモーション処理</t>
+    <rPh sb="0" eb="2">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>隕石の管理</t>
+    <rPh sb="0" eb="2">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -1802,7 +2178,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2030,6 +2406,10 @@
     <xf numFmtId="49" fontId="17" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2092,7 +2472,28 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2445,27 +2846,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -2485,8 +2865,35 @@
         <color indexed="10"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2499,7 +2906,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -2645,13 +3052,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7A0-4707-AE1D-FED90E4187CC}"/>
             </c:ext>
@@ -2725,13 +3153,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B7A0-4707-AE1D-FED90E4187CC}"/>
             </c:ext>
@@ -3018,7 +3467,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3146,20 +3595,32 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>下田</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>林</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>澁谷</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>馬上</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3168,16 +3629,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3200,7 +3661,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5DD0-42C2-BB4C-365BA097388A}"/>
             </c:ext>
@@ -3265,20 +3726,32 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>下田</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>林</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>澁谷</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>馬上</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3287,16 +3760,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3319,7 +3792,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5DD0-42C2-BB4C-365BA097388A}"/>
             </c:ext>
@@ -3384,8 +3857,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3397,16 +3871,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3429,7 +3903,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5DD0-42C2-BB4C-365BA097388A}"/>
             </c:ext>
@@ -3496,8 +3970,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -3509,16 +3984,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3541,7 +4016,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5DD0-42C2-BB4C-365BA097388A}"/>
             </c:ext>
@@ -3749,7 +4224,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -3907,7 +4382,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDE8-4E62-AC04-638BD0729AA1}"/>
             </c:ext>
@@ -3993,7 +4468,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDE8-4E62-AC04-638BD0729AA1}"/>
             </c:ext>
@@ -4280,7 +4755,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -4408,8 +4883,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4462,7 +4938,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A01-4EAA-8D07-C6DB4A9EF95D}"/>
             </c:ext>
@@ -4527,8 +5003,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4581,7 +5058,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A01-4EAA-8D07-C6DB4A9EF95D}"/>
             </c:ext>
@@ -4646,8 +5123,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4691,7 +5169,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A01-4EAA-8D07-C6DB4A9EF95D}"/>
             </c:ext>
@@ -4758,8 +5236,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4803,7 +5282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8A01-4EAA-8D07-C6DB4A9EF95D}"/>
             </c:ext>
@@ -5011,7 +5490,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -5160,7 +5639,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6912-48E1-95BE-E884EF07A686}"/>
             </c:ext>
@@ -5237,7 +5716,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6912-48E1-95BE-E884EF07A686}"/>
             </c:ext>
@@ -5524,7 +6003,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -5652,9 +6131,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5707,7 +6185,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E445-4087-AA36-F609D3B3834F}"/>
             </c:ext>
@@ -5772,9 +6250,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5827,7 +6304,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E445-4087-AA36-F609D3B3834F}"/>
             </c:ext>
@@ -5892,9 +6369,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5938,7 +6414,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E445-4087-AA36-F609D3B3834F}"/>
             </c:ext>
@@ -6005,9 +6481,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6051,7 +6526,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E445-4087-AA36-F609D3B3834F}"/>
             </c:ext>
@@ -6269,7 +6744,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>607695</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -6301,7 +6776,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>607695</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -6754,37 +7229,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="41" customWidth="1"/>
-    <col min="3" max="3" width="47.625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="41" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="40" customWidth="1"/>
     <col min="6" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:5" ht="19.2">
+      <c r="A1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" s="46" customFormat="1" ht="13.8" thickBot="1">
       <c r="A4" s="42"/>
       <c r="B4" s="43" t="s">
         <v>38</v>
@@ -6800,7 +7275,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -6809,21 +7284,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="103"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -6832,7 +7307,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -6842,49 +7317,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="103"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="103"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="103"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="103"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="103"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="103"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -6893,7 +7368,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -6903,49 +7378,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="103"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="103"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="103"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="103"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="103"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -6954,7 +7429,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -6964,49 +7439,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="103"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="103"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="103"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="103"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="103"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -7015,7 +7490,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -7025,49 +7500,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="103"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="103"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="103"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="103"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="103"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="103"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="103"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -7076,7 +7551,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="103"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -7086,28 +7561,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="103"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="103"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="103"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="103"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -7116,21 +7591,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="103"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="103"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="103"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -7139,7 +7614,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="103"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -7149,28 +7624,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="103"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="103"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="103"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="103"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -7179,7 +7654,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="103"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -7188,14 +7663,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="103"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="103"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -7204,7 +7679,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="103"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -7214,28 +7689,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="103"/>
+      <c r="A58" s="104"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="103"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="103"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="103"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -7244,7 +7719,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="103"/>
+      <c r="A62" s="104"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -7253,14 +7728,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="103"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="103"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -7269,7 +7744,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="103"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -7279,28 +7754,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="103"/>
+      <c r="A66" s="104"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="103"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="103"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -7309,21 +7784,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="105"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="105"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="105"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -7332,7 +7807,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="105"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -7342,49 +7817,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="105"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="105"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="105"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="105"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="105"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="105"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="105"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -7393,7 +7868,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="105"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -7403,49 +7878,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="105"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="105"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="105"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="105"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="105"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="105"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="105"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -7454,7 +7929,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="105"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -7464,49 +7939,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="105"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="105"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="105"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="105"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="105"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="105"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="105"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -7515,7 +7990,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="105"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -7525,49 +8000,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="105"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="105"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="105"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="105"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="105"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="105"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="105"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -7576,7 +8051,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="105"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -7586,49 +8061,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="105"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="105"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="105"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="105"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="105"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="105"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="105"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -7637,7 +8112,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="105"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -7647,49 +8122,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="105"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="105"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="105"/>
+      <c r="A116" s="106"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="105"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="105"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="105"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="105"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -7698,7 +8173,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="105"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -7708,49 +8183,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="105"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="105"/>
+      <c r="A123" s="106"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="105"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="105"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="105"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="105"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="105"/>
+      <c r="A128" s="106"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -7759,7 +8234,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="105"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -7769,28 +8244,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="105"/>
+      <c r="A130" s="106"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="105"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="105"/>
+      <c r="A132" s="106"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="105"/>
+      <c r="A133" s="106"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -7799,7 +8274,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="105"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -7808,14 +8283,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="105"/>
+      <c r="A135" s="106"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="105"/>
+      <c r="A136" s="106"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -7824,7 +8299,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="105"/>
+      <c r="A137" s="106"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -7834,28 +8309,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="105"/>
+      <c r="A138" s="106"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="105"/>
+      <c r="A139" s="106"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="105"/>
+      <c r="A140" s="106"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="105"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -7864,7 +8339,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="105"/>
+      <c r="A142" s="106"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -7873,14 +8348,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="105"/>
+      <c r="A143" s="106"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="105"/>
+      <c r="A144" s="106"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -7889,7 +8364,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="105"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -7899,28 +8374,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="105"/>
+      <c r="A146" s="106"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="105"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="106"/>
+      <c r="A148" s="107"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="107" t="s">
+      <c r="A149" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -7929,21 +8404,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="108"/>
+      <c r="A150" s="109"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="108"/>
+      <c r="A151" s="109"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="108"/>
+      <c r="A152" s="109"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -7952,7 +8427,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="108"/>
+      <c r="A153" s="109"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -7962,49 +8437,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="108"/>
+      <c r="A154" s="109"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="108"/>
+      <c r="A155" s="109"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="108"/>
+      <c r="A156" s="109"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="108"/>
+      <c r="A157" s="109"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="108"/>
+      <c r="A158" s="109"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="108"/>
+      <c r="A159" s="109"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="108"/>
+      <c r="A160" s="109"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -8013,7 +8488,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="108"/>
+      <c r="A161" s="109"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -8023,49 +8498,49 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="108"/>
+      <c r="A162" s="109"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="108"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="108"/>
+      <c r="A164" s="109"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="108"/>
+      <c r="A165" s="109"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75"/>
       <c r="D165" s="89"/>
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="108"/>
+      <c r="A166" s="109"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75"/>
       <c r="D166" s="89"/>
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="108"/>
+      <c r="A167" s="109"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="108"/>
+      <c r="A168" s="109"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -8074,7 +8549,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="108"/>
+      <c r="A169" s="109"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -8084,49 +8559,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="108"/>
+      <c r="A170" s="109"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="108"/>
+      <c r="A171" s="109"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="108"/>
+      <c r="A172" s="109"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="108"/>
+      <c r="A173" s="109"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="108"/>
+      <c r="A174" s="109"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="108"/>
+      <c r="A175" s="109"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="108"/>
+      <c r="A176" s="109"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -8135,7 +8610,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="108"/>
+      <c r="A177" s="109"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -8145,49 +8620,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="108"/>
+      <c r="A178" s="109"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="108"/>
+      <c r="A179" s="109"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="108"/>
+      <c r="A180" s="109"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="108"/>
+      <c r="A181" s="109"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="108"/>
+      <c r="A182" s="109"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="108"/>
+      <c r="A183" s="109"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="108"/>
+      <c r="A184" s="109"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -8196,7 +8671,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="108"/>
+      <c r="A185" s="109"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -8206,28 +8681,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="108"/>
+      <c r="A186" s="109"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="108"/>
+      <c r="A187" s="109"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="108"/>
+      <c r="A188" s="109"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="108"/>
+      <c r="A189" s="109"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -8236,7 +8711,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="108"/>
+      <c r="A190" s="109"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -8245,14 +8720,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="108"/>
+      <c r="A191" s="109"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="108"/>
+      <c r="A192" s="109"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -8261,7 +8736,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="108"/>
+      <c r="A193" s="109"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -8271,28 +8746,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="108"/>
+      <c r="A194" s="109"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="108"/>
+      <c r="A195" s="109"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="108"/>
+      <c r="A196" s="109"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="108"/>
+      <c r="A197" s="109"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -8301,7 +8776,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="108"/>
+      <c r="A198" s="109"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -8310,14 +8785,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="108"/>
+      <c r="A199" s="109"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="108"/>
+      <c r="A200" s="109"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -8326,7 +8801,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="108"/>
+      <c r="A201" s="109"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -8336,21 +8811,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="108"/>
+      <c r="A202" s="109"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="108"/>
+      <c r="A203" s="109"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="109"/>
+      <c r="A204" s="110"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -8442,76 +8917,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X188"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="17" width="4.625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="2.875" customWidth="1"/>
-    <col min="29" max="29" width="14.25" customWidth="1"/>
-    <col min="30" max="30" width="4.75" customWidth="1"/>
-    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="17" width="4.6640625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="2.88671875" customWidth="1"/>
+    <col min="29" max="29" width="14.21875" customWidth="1"/>
+    <col min="30" max="30" width="4.77734375" customWidth="1"/>
+    <col min="31" max="31" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="23" t="s">
         <v>49</v>
       </c>
@@ -8538,60 +9014,122 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
+        <v>53</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="N3" s="20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
+        <v>61</v>
+      </c>
+      <c r="K4" s="21">
+        <f t="shared" ref="K4:Q4" si="1">SUM(K5:K104)</f>
+        <v>43</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="16"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f t="shared" ref="D5:D36" ca="1" si="2">IF(ISBLANK($B5),"",IF(ISBLANK($F5),"未着手",IF($I5=0,"完了","作業中")))</f>
+        <v>完了</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G5" s="19">
+        <v>3</v>
+      </c>
+      <c r="H5" s="19">
+        <v>3</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I11" ca="1" si="3">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:X5)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0</v>
+      </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
@@ -8602,16 +9140,38 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="16"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
+      <c r="B6" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43028</v>
+      </c>
+      <c r="F6" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>3</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
@@ -8621,53 +9181,129 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="16"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="B7" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43032</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43028</v>
+      </c>
+      <c r="G7" s="19">
+        <v>6</v>
+      </c>
+      <c r="H7" s="19">
+        <v>11</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="22">
+        <v>6</v>
+      </c>
+      <c r="K7" s="22">
+        <v>3</v>
+      </c>
+      <c r="L7" s="22">
+        <v>3</v>
+      </c>
+      <c r="M7" s="22">
+        <v>3</v>
+      </c>
+      <c r="N7" s="22">
+        <v>3</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="16"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+      <c r="B8" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22">
+        <v>6</v>
+      </c>
+      <c r="L8" s="22">
+        <v>6</v>
+      </c>
+      <c r="M8" s="22">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="16"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G9" s="19">
+        <v>6</v>
+      </c>
+      <c r="H9" s="19">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
@@ -8678,17 +9314,41 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="B10" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43032</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>3</v>
+      </c>
+      <c r="K10" s="22">
+        <v>3</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -8697,18 +9357,44 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="B11" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="19">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22">
+        <v>4</v>
+      </c>
+      <c r="L11" s="22">
+        <v>4</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -8716,18 +9402,43 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="16"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="B12" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3</v>
+      </c>
+      <c r="H12" s="19">
+        <v>3</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>3</v>
+      </c>
+      <c r="K12" s="22">
+        <v>3</v>
+      </c>
+      <c r="L12" s="22">
+        <v>3</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -8737,12 +9448,18 @@
       <c r="A13" s="16"/>
       <c r="B13" s="85"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="str">
+        <f ca="1">IF(ISBLANK(J13)=FALSE,OFFSET(I13,0,COUNTA(J13:X13)),"")</f>
+        <v/>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -8754,15 +9471,34 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
@@ -8773,16 +9509,37 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="16"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="B15" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43028</v>
+      </c>
+      <c r="F15" s="4">
+        <v>43028</v>
+      </c>
+      <c r="G15" s="19">
+        <v>6</v>
+      </c>
+      <c r="H15" s="19">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>6</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -8794,12 +9551,18 @@
       <c r="A16" s="16"/>
       <c r="B16" s="85"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="str">
+        <f t="shared" ref="I16:I23" ca="1" si="4">IF(ISBLANK(J16)=FALSE,OFFSET(I16,0,COUNTA(J16:X16)),"")</f>
+        <v/>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -8811,36 +9574,88 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="16"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="B17" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F17" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G17" s="19">
+        <v>6</v>
+      </c>
+      <c r="H17" s="19">
+        <v>6</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="22">
+        <v>6</v>
+      </c>
+      <c r="K17" s="22">
+        <v>6</v>
+      </c>
+      <c r="L17" s="22">
+        <v>5</v>
+      </c>
+      <c r="M17" s="22">
+        <v>4</v>
+      </c>
+      <c r="N17" s="22">
+        <v>1</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="16"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="B18" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43028</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43028</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>2</v>
+      </c>
+      <c r="K18" s="22">
+        <v>2</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -8851,12 +9666,18 @@
       <c r="A19" s="16"/>
       <c r="B19" s="85"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -8868,16 +9689,38 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="16"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="B20" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43028</v>
+      </c>
+      <c r="F20" s="4">
+        <v>43028</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>6</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>6</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
@@ -8889,12 +9732,18 @@
       <c r="A21" s="16"/>
       <c r="B21" s="85"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -8906,18 +9755,44 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="16"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="B22" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1031</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
+        <v>1</v>
+      </c>
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -8925,18 +9800,44 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="16"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="B23" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>2</v>
+      </c>
+      <c r="K23" s="22">
+        <v>2</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -8944,18 +9845,43 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="16"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="B24" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2</v>
+      </c>
+      <c r="H24" s="19">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>2</v>
+      </c>
+      <c r="K24" s="22">
+        <v>2</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0</v>
+      </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -8963,18 +9889,44 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="16"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="B25" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" ref="I25:I56" ca="1" si="5">IF(ISBLANK(J25)=FALSE,OFFSET(I25,0,COUNTA(J25:X25)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>1</v>
+      </c>
+      <c r="K25" s="22">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22">
+        <v>1</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -8982,38 +9934,94 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="16"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="B26" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F26" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <v>2</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="22">
+        <v>1</v>
+      </c>
+      <c r="K26" s="22">
+        <v>1</v>
+      </c>
+      <c r="L26" s="22">
+        <v>1</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1</v>
+      </c>
+      <c r="N26" s="22">
+        <v>0</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="16"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="B27" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F27" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <v>1</v>
+      </c>
+      <c r="K27" s="22">
+        <v>1</v>
+      </c>
+      <c r="L27" s="22">
+        <v>1</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -9022,12 +10030,18 @@
       <c r="A28" s="16"/>
       <c r="B28" s="85"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -9039,152 +10053,376 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="16"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="B29" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <v>0</v>
+      </c>
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>0</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0</v>
+      </c>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="16"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+      <c r="B30" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F30" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>0</v>
+      </c>
+      <c r="N30" s="22">
+        <v>0</v>
+      </c>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="16"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+      <c r="B31" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
+        <v>0</v>
+      </c>
+      <c r="K31" s="22">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>0</v>
+      </c>
+      <c r="N31" s="22">
+        <v>0</v>
+      </c>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="16"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
+      <c r="B32" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="22">
+        <v>0</v>
+      </c>
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="16"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
+      <c r="B33" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="22">
+        <v>0</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="16"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
+      <c r="B34" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="H34" s="19">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0</v>
+      </c>
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>0</v>
+      </c>
+      <c r="N34" s="22">
+        <v>0</v>
+      </c>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="16"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="B35" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="22">
+        <v>0</v>
+      </c>
+      <c r="K35" s="22">
+        <v>0</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>0</v>
+      </c>
+      <c r="N35" s="22">
+        <v>0</v>
+      </c>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="16"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+      <c r="B36" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43025</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43025</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="22">
+        <v>0</v>
+      </c>
+      <c r="K36" s="22">
+        <v>0</v>
+      </c>
+      <c r="L36" s="22">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>0</v>
+      </c>
+      <c r="N36" s="22">
+        <v>0</v>
+      </c>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -9193,12 +10431,18 @@
       <c r="A37" s="16"/>
       <c r="B37" s="85"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="12" t="str">
+        <f t="shared" ref="D37:D68" si="6">IF(ISBLANK($B37),"",IF(ISBLANK($F37),"未着手",IF($I37=0,"完了","作業中")))</f>
+        <v/>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -9210,38 +10454,92 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="16"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
+      <c r="B38" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>完了</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F38" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G38" s="19">
+        <v>2</v>
+      </c>
+      <c r="H38" s="19">
+        <v>2</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="22">
+        <v>2</v>
+      </c>
+      <c r="K38" s="22">
+        <v>2</v>
+      </c>
+      <c r="L38" s="22">
+        <v>2</v>
+      </c>
+      <c r="M38" s="22">
+        <v>2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>0</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="16"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+      <c r="B39" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>作業中</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43039</v>
+      </c>
+      <c r="F39" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6</v>
+      </c>
+      <c r="H39" s="19">
+        <v>4</v>
+      </c>
+      <c r="I39" s="12">
+        <v>2</v>
+      </c>
+      <c r="J39" s="22">
+        <v>6</v>
+      </c>
+      <c r="K39" s="22">
+        <v>6</v>
+      </c>
+      <c r="L39" s="22">
+        <v>6</v>
+      </c>
+      <c r="M39" s="22">
+        <v>6</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2</v>
+      </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -9250,12 +10548,18 @@
       <c r="A40" s="16"/>
       <c r="B40" s="85"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -9269,12 +10573,18 @@
       <c r="A41" s="16"/>
       <c r="B41" s="85"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -9288,12 +10598,18 @@
       <c r="A42" s="16"/>
       <c r="B42" s="85"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="12"/>
+      <c r="I42" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -9307,12 +10623,18 @@
       <c r="A43" s="16"/>
       <c r="B43" s="85"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -9326,12 +10648,18 @@
       <c r="A44" s="16"/>
       <c r="B44" s="85"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -9345,12 +10673,18 @@
       <c r="A45" s="16"/>
       <c r="B45" s="85"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -9364,12 +10698,18 @@
       <c r="A46" s="16"/>
       <c r="B46" s="85"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -9383,12 +10723,18 @@
       <c r="A47" s="16"/>
       <c r="B47" s="85"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -9402,12 +10748,18 @@
       <c r="A48" s="16"/>
       <c r="B48" s="85"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -9421,12 +10773,18 @@
       <c r="A49" s="16"/>
       <c r="B49" s="85"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="12"/>
+      <c r="I49" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -9440,12 +10798,18 @@
       <c r="A50" s="16"/>
       <c r="B50" s="85"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -9459,12 +10823,18 @@
       <c r="A51" s="16"/>
       <c r="B51" s="85"/>
       <c r="C51" s="18"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -9478,12 +10848,18 @@
       <c r="A52" s="16"/>
       <c r="B52" s="85"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -9497,12 +10873,18 @@
       <c r="A53" s="16"/>
       <c r="B53" s="85"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="12"/>
+      <c r="I53" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -9516,12 +10898,18 @@
       <c r="A54" s="16"/>
       <c r="B54" s="85"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -9535,12 +10923,18 @@
       <c r="A55" s="16"/>
       <c r="B55" s="85"/>
       <c r="C55" s="18"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -9554,12 +10948,18 @@
       <c r="A56" s="16"/>
       <c r="B56" s="85"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="12"/>
+      <c r="D56" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="12"/>
+      <c r="I56" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -9574,7 +10974,7 @@
       <c r="B57" s="85"/>
       <c r="C57" s="18"/>
       <c r="D57" s="12" t="str">
-        <f t="shared" ref="D57:D69" si="0">IF(ISBLANK($B57),"",IF(ISBLANK($F57),"未着手",IF($I57=0,"完了","作業中")))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E57" s="4"/>
@@ -9582,7 +10982,7 @@
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
       <c r="I57" s="12" t="str">
-        <f t="shared" ref="I57:I104" ca="1" si="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
+        <f t="shared" ref="I57:I88" ca="1" si="7">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:X57)),"")</f>
         <v/>
       </c>
       <c r="J57" s="22"/>
@@ -9599,7 +10999,7 @@
       <c r="B58" s="85"/>
       <c r="C58" s="18"/>
       <c r="D58" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E58" s="4"/>
@@ -9607,7 +11007,7 @@
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J58" s="22"/>
@@ -9624,7 +11024,7 @@
       <c r="B59" s="85"/>
       <c r="C59" s="18"/>
       <c r="D59" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E59" s="4"/>
@@ -9632,7 +11032,7 @@
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J59" s="22"/>
@@ -9649,7 +11049,7 @@
       <c r="B60" s="85"/>
       <c r="C60" s="18"/>
       <c r="D60" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E60" s="4"/>
@@ -9657,7 +11057,7 @@
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J60" s="22"/>
@@ -9674,7 +11074,7 @@
       <c r="B61" s="85"/>
       <c r="C61" s="18"/>
       <c r="D61" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E61" s="4"/>
@@ -9682,7 +11082,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J61" s="22"/>
@@ -9699,7 +11099,7 @@
       <c r="B62" s="85"/>
       <c r="C62" s="18"/>
       <c r="D62" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E62" s="4"/>
@@ -9707,7 +11107,7 @@
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
       <c r="I62" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J62" s="22"/>
@@ -9724,7 +11124,7 @@
       <c r="B63" s="85"/>
       <c r="C63" s="18"/>
       <c r="D63" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E63" s="4"/>
@@ -9732,7 +11132,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J63" s="22"/>
@@ -9749,7 +11149,7 @@
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E64" s="4"/>
@@ -9757,7 +11157,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J64" s="22"/>
@@ -9774,7 +11174,7 @@
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E65" s="4"/>
@@ -9782,7 +11182,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J65" s="22"/>
@@ -9799,7 +11199,7 @@
       <c r="B66" s="17"/>
       <c r="C66" s="18"/>
       <c r="D66" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E66" s="4"/>
@@ -9807,7 +11207,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="I66" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J66" s="22"/>
@@ -9824,7 +11224,7 @@
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E67" s="4"/>
@@ -9832,7 +11232,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J67" s="22"/>
@@ -9849,7 +11249,7 @@
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E68" s="4"/>
@@ -9857,7 +11257,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J68" s="22"/>
@@ -9874,7 +11274,7 @@
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D69:D104" si="8">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E69" s="4"/>
@@ -9882,7 +11282,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J69" s="22"/>
@@ -9899,7 +11299,7 @@
       <c r="B70" s="17"/>
       <c r="C70" s="18"/>
       <c r="D70" s="12" t="str">
-        <f t="shared" ref="D70:D104" si="2">IF(ISBLANK($B70),"",IF(ISBLANK($F70),"未着手",IF($I70=0,"完了","作業中")))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E70" s="4"/>
@@ -9907,7 +11307,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J70" s="22"/>
@@ -9924,7 +11324,7 @@
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E71" s="4"/>
@@ -9932,7 +11332,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -9949,7 +11349,7 @@
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E72" s="4"/>
@@ -9957,7 +11357,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -9974,7 +11374,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E73" s="4"/>
@@ -9982,7 +11382,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J73" s="22"/>
@@ -9999,7 +11399,7 @@
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E74" s="4"/>
@@ -10007,7 +11407,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -10024,7 +11424,7 @@
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E75" s="4"/>
@@ -10032,7 +11432,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J75" s="22"/>
@@ -10049,7 +11449,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E76" s="4"/>
@@ -10057,7 +11457,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -10074,7 +11474,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E77" s="4"/>
@@ -10082,7 +11482,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J77" s="22"/>
@@ -10099,7 +11499,7 @@
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E78" s="4"/>
@@ -10107,7 +11507,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -10124,7 +11524,7 @@
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E79" s="4"/>
@@ -10132,7 +11532,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -10149,7 +11549,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E80" s="4"/>
@@ -10157,7 +11557,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -10174,7 +11574,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E81" s="4"/>
@@ -10182,7 +11582,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -10199,7 +11599,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E82" s="4"/>
@@ -10207,7 +11607,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -10224,7 +11624,7 @@
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E83" s="4"/>
@@ -10232,7 +11632,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -10249,7 +11649,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E84" s="4"/>
@@ -10257,7 +11657,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J84" s="22"/>
@@ -10274,7 +11674,7 @@
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E85" s="4"/>
@@ -10282,7 +11682,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -10299,7 +11699,7 @@
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E86" s="4"/>
@@ -10307,7 +11707,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -10324,7 +11724,7 @@
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E87" s="4"/>
@@ -10332,7 +11732,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -10349,7 +11749,7 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E88" s="4"/>
@@ -10357,7 +11757,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -10374,7 +11774,7 @@
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E89" s="4"/>
@@ -10382,7 +11782,7 @@
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="I89:I120" ca="1" si="9">IF(ISBLANK(J89)=FALSE,OFFSET(I89,0,COUNTA(J89:X89)),"")</f>
         <v/>
       </c>
       <c r="J89" s="22"/>
@@ -10399,7 +11799,7 @@
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E90" s="4"/>
@@ -10407,7 +11807,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -10424,7 +11824,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E91" s="4"/>
@@ -10432,7 +11832,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -10449,7 +11849,7 @@
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E92" s="4"/>
@@ -10457,7 +11857,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -10474,7 +11874,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E93" s="4"/>
@@ -10482,7 +11882,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -10499,7 +11899,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E94" s="4"/>
@@ -10507,7 +11907,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -10524,7 +11924,7 @@
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E95" s="4"/>
@@ -10532,7 +11932,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J95" s="22"/>
@@ -10549,7 +11949,7 @@
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E96" s="4"/>
@@ -10557,7 +11957,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -10574,7 +11974,7 @@
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E97" s="4"/>
@@ -10582,7 +11982,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -10599,7 +11999,7 @@
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E98" s="4"/>
@@ -10607,7 +12007,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -10624,7 +12024,7 @@
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E99" s="4"/>
@@ -10632,7 +12032,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -10649,7 +12049,7 @@
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E100" s="4"/>
@@ -10657,7 +12057,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -10674,7 +12074,7 @@
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E101" s="4"/>
@@ -10682,7 +12082,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -10699,7 +12099,7 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E102" s="4"/>
@@ -10707,7 +12107,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -10724,7 +12124,7 @@
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E103" s="4"/>
@@ -10732,7 +12132,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J103" s="22"/>
@@ -10749,7 +12149,7 @@
       <c r="B104" s="17"/>
       <c r="C104" s="18"/>
       <c r="D104" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="E104" s="4"/>
@@ -10757,7 +12157,7 @@
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="J104" s="22"/>
@@ -10816,26 +12216,28 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-      <c r="S107" s="11"/>
+      <c r="S107" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="T107" s="10">
-        <f t="shared" ref="T107:T116" si="3">SUMIF($C$5:$C$104,S107,$G$5:$G$104)</f>
+        <f t="shared" ref="T107:T116" si="10">SUMIF($C$5:$C$104,S107,$G$5:$G$104)</f>
+        <v>24</v>
+      </c>
+      <c r="U107" s="10">
+        <f t="shared" ref="U107:U116" ca="1" si="11">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
+        <v>3</v>
+      </c>
+      <c r="V107" s="10">
+        <f t="shared" ref="V107:V116" si="12">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
+        <v>31</v>
+      </c>
+      <c r="W107" s="14">
+        <f t="shared" ref="W107:W116" si="13">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
         <v>0</v>
       </c>
-      <c r="U107" s="10">
-        <f t="shared" ref="U107:U116" si="4">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
-        <v>0</v>
-      </c>
-      <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="5">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
-        <v>0</v>
-      </c>
-      <c r="W107" s="14">
-        <f t="shared" ref="W107:W116" si="6">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>42</v>
-      </c>
       <c r="X107" s="15">
-        <f>IF(W107&gt;U107,0,U107-W107)</f>
-        <v>0</v>
+        <f ca="1">IF(W107&gt;U107,0,U107-W107)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -10847,25 +12249,27 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-      <c r="S108" s="11"/>
+      <c r="S108" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="T108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="U108" s="10">
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="U108" s="10">
-        <f t="shared" si="4"/>
+      <c r="V108" s="10">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="W108" s="14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V108" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W108" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X108" s="15">
-        <f t="shared" ref="X108:X116" si="7">IF(W108&gt;U108,0,U108-W108)</f>
+        <f t="shared" ref="X108:X116" ca="1" si="14">IF(W108&gt;U108,0,U108-W108)</f>
         <v>0</v>
       </c>
     </row>
@@ -10878,26 +12282,28 @@
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-      <c r="S109" s="11"/>
+      <c r="S109" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="T109" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="U109" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="V109" s="10">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="W109" s="14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U109" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V109" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W109" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X109" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:24">
@@ -10909,26 +12315,28 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-      <c r="S110" s="11"/>
+      <c r="S110" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="T110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="U110" s="10">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="V110" s="10">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="W110" s="14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U110" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V110" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W110" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
       <c r="X110" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -10942,23 +12350,23 @@
       <c r="Q111" s="6"/>
       <c r="S111" s="11"/>
       <c r="T111" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W111" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X111" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -10973,23 +12381,23 @@
       <c r="Q112" s="6"/>
       <c r="S112" s="11"/>
       <c r="T112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W112" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X112" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11004,23 +12412,23 @@
       <c r="Q113" s="6"/>
       <c r="S113" s="11"/>
       <c r="T113" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W113" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X113" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11035,23 +12443,23 @@
       <c r="Q114" s="6"/>
       <c r="S114" s="11"/>
       <c r="T114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W114" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X114" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11066,23 +12474,23 @@
       <c r="Q115" s="6"/>
       <c r="S115" s="11"/>
       <c r="T115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U115" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W115" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X115" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11097,23 +12505,23 @@
       <c r="Q116" s="6"/>
       <c r="S116" s="11"/>
       <c r="T116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U116" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W116" s="14">
-        <f t="shared" si="6"/>
-        <v>42</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="X116" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -11838,6 +13246,15 @@
       <c r="Q188" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q188">
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+  </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A1:A4"/>
@@ -11863,46 +13280,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="44" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11918,78 +13335,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="19" width="4.625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="2.875" customWidth="1"/>
-    <col min="31" max="31" width="14.25" customWidth="1"/>
-    <col min="32" max="32" width="4.75" customWidth="1"/>
-    <col min="33" max="33" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="19" width="4.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="2.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.21875" customWidth="1"/>
+    <col min="32" max="32" width="4.77734375" customWidth="1"/>
+    <col min="33" max="33" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -12022,15 +13439,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -12046,15 +13463,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -15708,57 +17125,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15775,74 +17192,74 @@
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="6.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="13" width="4.75" style="7" customWidth="1"/>
-    <col min="14" max="16" width="4.625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="2.875" customWidth="1"/>
-    <col min="28" max="28" width="14.25" customWidth="1"/>
-    <col min="29" max="29" width="4.75" customWidth="1"/>
-    <col min="30" max="30" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.88671875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="6.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="2" customWidth="1"/>
+    <col min="10" max="13" width="4.77734375" style="7" customWidth="1"/>
+    <col min="14" max="16" width="4.6640625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="2.88671875" customWidth="1"/>
+    <col min="28" max="28" width="14.21875" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" customWidth="1"/>
+    <col min="30" max="30" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="23" t="s">
         <v>67</v>
       </c>
@@ -15866,15 +17283,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -15887,15 +17304,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -18994,62 +20411,62 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -19064,30 +20481,30 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="26" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="26" customWidth="1"/>
     <col min="5" max="5" width="13" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="41.5" style="26" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="26" customWidth="1"/>
     <col min="12" max="12" width="9" style="26"/>
-    <col min="13" max="13" width="5.875" style="26" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="26" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="26" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="26" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="26" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="26" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" style="26" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="26" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="26" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" style="26" customWidth="1"/>
     <col min="19" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
+    <row r="1" spans="1:18" ht="13.8" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -19303,7 +20720,7 @@
       <c r="Q9" s="33"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickBot="1">
+    <row r="10" spans="1:18" ht="13.8" thickBot="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -19858,13 +21275,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
